--- a/PTI/Semanas/semana_3/TIMESHEET_MYKHAYLO.XLSX
+++ b/PTI/Semanas/semana_3/TIMESHEET_MYKHAYLO.XLSX
@@ -7,21 +7,19 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7migxmgeXFnvc3AQxB7rxOsq1LhGpw=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>TIMESHEET</t>
   </si>
   <si>
     <t>DEPARTAMENTO:</t>
+  </si>
+  <si>
+    <t>Informática</t>
   </si>
   <si>
     <t>NOME:</t>
@@ -33,16 +31,13 @@
     <t>PROJETO:</t>
   </si>
   <si>
+    <t>PTI/PTR</t>
+  </si>
+  <si>
     <t>MÊS/ANO:</t>
   </si>
   <si>
     <t>TAREFA</t>
-  </si>
-  <si>
-    <t>SEMANA 1</t>
-  </si>
-  <si>
-    <t>SEMANA 2</t>
   </si>
   <si>
     <t>SEMANA 3</t>
@@ -52,6 +47,12 @@
   </si>
   <si>
     <t>SEMANA 5</t>
+  </si>
+  <si>
+    <t>SEMANA 6</t>
+  </si>
+  <si>
+    <t>SEMANA 7</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -94,10 +95,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mmmm, yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -117,13 +119,24 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font/>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -617,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -628,21 +641,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -650,6 +669,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,162 +706,156 @@
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="21" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="23" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="25" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="30" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="33" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="30" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="39" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="40" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="37" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="39" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="40" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="41" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="42" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="42" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="42" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1071,7 +1087,9 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1094,7 +1112,7 @@
     </row>
     <row r="5" ht="23.25" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
@@ -1119,9 +1137,9 @@
     </row>
     <row r="6" ht="23.25" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1144,9 +1162,11 @@
     </row>
     <row r="7" ht="23.25" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1169,9 +1189,11 @@
     </row>
     <row r="8" ht="23.25" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43891.0</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1194,858 +1216,858 @@
     </row>
     <row r="9" ht="23.25" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
     </row>
     <row r="11">
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="9" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="9" t="s">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="12" t="s">
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="11" t="s">
         <v>12</v>
+      </c>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="17">
         <f t="shared" ref="E12:AH12" si="1">D12+1</f>
-        <v>2</v>
-      </c>
-      <c r="F12" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H12" s="16">
+      <c r="F12" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I12" s="17">
+      <c r="G12" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J12" s="14">
+      <c r="H12" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K12" s="14">
+      <c r="I12" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L12" s="14">
+      <c r="J12" s="17">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M12" s="15">
+      <c r="K12" s="17">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N12" s="15">
+      <c r="L12" s="17">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="O12" s="16">
+      <c r="M12" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P12" s="17">
+      <c r="N12" s="18">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="O12" s="19">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="R12" s="14">
+      <c r="P12" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S12" s="14">
+      <c r="Q12" s="21">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T12" s="15">
+      <c r="R12" s="17">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="U12" s="15">
+      <c r="S12" s="17">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="V12" s="16">
+      <c r="T12" s="18">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="W12" s="17">
+      <c r="U12" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="X12" s="18">
+      <c r="V12" s="19">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="W12" s="20">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="X12" s="21">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="Y12" s="17">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="Z12" s="17">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AA12" s="18">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="AD12" s="17">
+      <c r="AB12" s="18">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AC12" s="19">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AD12" s="20">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="AG12" s="14">
+      <c r="AE12" s="21">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AH12" s="15">
+      <c r="AF12" s="17">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="13"/>
+      <c r="AG12" s="17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="AH12" s="18">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="15"/>
     </row>
     <row r="13">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="D13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="24" t="s">
+      <c r="H13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="O13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="R13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="22" t="s">
+      <c r="V13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="W13" s="24" t="s">
+      <c r="W13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="X13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="21" t="s">
+      <c r="Z13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AA13" s="22" t="s">
+      <c r="AC13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AB13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="24" t="s">
+      <c r="AD13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AE13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="20"/>
+      <c r="AG13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="23"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="35">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="38">
         <f t="shared" ref="AL14:AL28" si="2">SUM(C14:AK14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="45">
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="36"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="53"/>
-      <c r="AL16" s="54">
+      <c r="B16" s="39"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="36"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54">
+      <c r="B17" s="39"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="36"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="53"/>
-      <c r="AL18" s="54">
+      <c r="B18" s="39"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="36"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="54">
+      <c r="B19" s="39"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="36"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="53"/>
-      <c r="AL20" s="54">
+      <c r="B20" s="39"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="36"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="54">
+      <c r="B21" s="39"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="36"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="54">
+      <c r="B22" s="39"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="54"/>
+      <c r="AL22" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="36"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="54">
+      <c r="B23" s="39"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="55"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="53"/>
-      <c r="AL24" s="54">
+      <c r="B24" s="39"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="54"/>
+      <c r="AL24" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="55"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="54">
+      <c r="B25" s="39"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="55"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="54">
+      <c r="B26" s="39"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2094,7 +2116,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" s="66">
         <f t="shared" ref="C28:AH28" si="3">SUM(C14:C27)</f>
@@ -2236,27 +2258,27 @@
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" s="74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB31" s="75"/>
       <c r="AC31" s="76"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="AA32" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB32" s="75"/>
       <c r="AC32" s="76"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="77"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="78"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2269,9 +2291,9 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="AA33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB33" s="78" t="str">
+        <v>23</v>
+      </c>
+      <c r="AB33" s="79" t="str">
         <f>AL28/AB32</f>
         <v>#DIV/0!</v>
       </c>
@@ -2279,24 +2301,24 @@
     </row>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
+      <c r="B35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
     </row>
     <row r="36" ht="26.25" customHeight="1">
-      <c r="B36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
+      <c r="B36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" s="80"/>
+      <c r="U36" s="80"/>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
